--- a/cs221 results.xlsx
+++ b/cs221 results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="9500" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Year Predicted</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>% attained</t>
+  </si>
+  <si>
+    <t>'lucrojo01', 'hosmeer01', 'carpema01', 'donaljo02', 'crawfbr01', 'brantmi02', 'mccutan01', 'venabwi01', 'moralke01', 'CIN'</t>
+  </si>
+  <si>
+    <t>'poseybu01', 'freemfr01', 'hillaa01', 'headlch01', 'castrst01', 'pradoma01', 'mccutan01', 'heywaja01', 'encared01', 'CIN'</t>
+  </si>
+  <si>
+    <t>'wietema01', 'morsemi01', 'kinslia01', 'sandopa01', 'andruel01', 'braunry02', 'ellsbja01', 'uptonju01', 'butlebi03', 'DET'</t>
+  </si>
+  <si>
+    <t>['mauerjo01', 'vottojo01', 'pradoma01', 'longoev01', 'tulowtr01', 'braunry02', 'victosh01', 'bautijo02', 'guerrvl01', 'MIN']</t>
+  </si>
+  <si>
+    <t>baseline 3712</t>
   </si>
 </sst>
 </file>
@@ -126,8 +141,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -139,13 +156,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H7"/>
+  <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -653,6 +672,145 @@
         <v>70.004877255730776</v>
       </c>
     </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>2011</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5648.4012860000003</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4325</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6180</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H20" si="1">(E17/G17)*100</f>
+        <v>69.983818770226534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18">
+        <v>2012</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5336.3545225600001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4698</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6373</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>73.717244625764948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>2013</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5338.6350000000002</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4307</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6312</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>68.235107731305462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>2014</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5080.10538</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4402</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6151</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>71.565599089578939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cs221 results.xlsx
+++ b/cs221 results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Year Predicted</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>baseline 3712</t>
+  </si>
+  <si>
+    <t>Linear Regression Score</t>
+  </si>
+  <si>
+    <t>Oracle Score</t>
+  </si>
+  <si>
+    <t>SVM Score</t>
+  </si>
+  <si>
+    <t>Logistic Regression Score</t>
   </si>
 </sst>
 </file>
@@ -141,8 +153,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -156,20 +182,365 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oracle Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$17:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6180.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6373.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6312.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6151.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear Regression Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4325.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4698.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4307.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4402.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$17:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2635.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3285.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3139.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2509.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$17:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3448.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3454.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2490.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3297.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2108225768"/>
+        <c:axId val="2107840216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2108225768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Prediction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2107840216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2107840216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108225768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -506,12 +877,12 @@
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="48.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -537,7 +908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17">
+    <row r="3" spans="1:10" ht="17">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -564,7 +935,7 @@
         <v>60.812931575643439</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17">
+    <row r="4" spans="1:10" ht="17">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -591,7 +962,7 @@
         <v>69.35275080906149</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17">
+    <row r="5" spans="1:10" ht="17">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -618,7 +989,7 @@
         <v>72.461948846696998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17">
+    <row r="6" spans="1:10" ht="17">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -645,7 +1016,7 @@
         <v>63.688212927756652</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17">
+    <row r="7" spans="1:10" ht="17">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -672,7 +1043,7 @@
         <v>70.004877255730776</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -686,19 +1057,25 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="17">
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17">
       <c r="A17">
         <v>2010</v>
       </c>
@@ -724,8 +1101,14 @@
         <f t="shared" ref="H17:H20" si="1">(E17/G17)*100</f>
         <v>69.983818770226534</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="17">
+      <c r="I17" s="1">
+        <v>2635</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -751,8 +1134,14 @@
         <f t="shared" si="1"/>
         <v>73.717244625764948</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="17">
+      <c r="I18" s="1">
+        <v>3285</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -778,8 +1167,14 @@
         <f t="shared" si="1"/>
         <v>68.235107731305462</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="17">
+      <c r="I19" s="1">
+        <v>3139</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -805,15 +1200,107 @@
         <f t="shared" si="1"/>
         <v>71.565599089578939</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="1">
+        <v>2509</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="E21" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17">
+      <c r="A42">
+        <v>2010</v>
+      </c>
+      <c r="B42">
+        <v>2011</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4325</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2635</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17">
+      <c r="A43">
+        <v>2011</v>
+      </c>
+      <c r="B43">
+        <v>2012</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4698</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3285</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17">
+      <c r="A44">
+        <v>2012</v>
+      </c>
+      <c r="B44">
+        <v>2013</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4307</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3139</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17">
+      <c r="A45">
+        <v>2013</v>
+      </c>
+      <c r="B45">
+        <v>2014</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4402</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2509</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3297</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
